--- a/S158_122/1.0.0/S-158_122_1_0_0_20251226.xlsx
+++ b/S158_122/1.0.0/S-158_122_1_0_0_20251226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\S-122-Product-Specification-Development\S158_122\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB3FA0F-E542-4719-94FA-2341F48B91F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E2C27F-D1E2-4DC6-A07C-7A7813690FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="440">
   <si>
     <t>Document Number</t>
   </si>
@@ -1811,6 +1811,33 @@
   </si>
   <si>
     <t>NIPWG/S-122 TASK GROUP</t>
+  </si>
+  <si>
+    <t>Nilled attribute code populated with non-nil code value</t>
+  </si>
+  <si>
+    <t>For each nillable enumeration or codelist attribute where xsi:nil=true but attribute code is present and populated with a value &gt; 0</t>
+  </si>
+  <si>
+    <t>Amend value of code or remove nilling</t>
+  </si>
+  <si>
+    <t>B.U</t>
+  </si>
+  <si>
+    <t>Requirement needs to be documented in DCEG</t>
+  </si>
+  <si>
+    <t>Nilled attribute without nilReason populated</t>
+  </si>
+  <si>
+    <t>For each nilled attribute without nilReason populated</t>
+  </si>
+  <si>
+    <t>Populate nilReason for nilled attributes</t>
+  </si>
+  <si>
+    <t>Producers may further restrict allowed values of nilReason. Requirement needs to be added to DCEG</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2356,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2636,6 +2663,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2647,36 +2701,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2991,14 +3015,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="33.6" customHeight="1">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
@@ -3124,7 +3148,7 @@
       <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="128" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3138,7 +3162,7 @@
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="23" t="s">
         <v>95</v>
       </c>
@@ -3150,7 +3174,7 @@
       <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="24" t="s">
         <v>96</v>
       </c>
@@ -3162,7 +3186,7 @@
       <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
@@ -3174,7 +3198,7 @@
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -3182,7 +3206,7 @@
       <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="27"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3221,8 +3245,8 @@
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3393,7 +3417,7 @@
       <c r="G4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="99">
         <v>12.8</v>
       </c>
       <c r="I4" s="85" t="s">
@@ -3801,7 +3825,7 @@
       <c r="D15" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="118" t="s">
         <v>388</v>
       </c>
       <c r="F15" s="73" t="s">
@@ -4163,7 +4187,7 @@
       <c r="G24" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="123" t="s">
+      <c r="H24" s="119" t="s">
         <v>396</v>
       </c>
       <c r="I24" s="85" t="s">
@@ -4429,10 +4453,10 @@
       <c r="F31" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="124" t="s">
+      <c r="G31" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="119" t="s">
         <v>397</v>
       </c>
       <c r="I31" s="85" t="s">
@@ -4541,10 +4565,10 @@
       <c r="F34" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="125" t="s">
+      <c r="G34" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="120" t="s">
+      <c r="H34" s="116" t="s">
         <v>398</v>
       </c>
       <c r="I34" s="82" t="s">
@@ -4582,10 +4606,10 @@
       <c r="F35" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="126" t="s">
+      <c r="G35" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="120" t="s">
+      <c r="H35" s="116" t="s">
         <v>399</v>
       </c>
       <c r="I35" s="82" t="s">
@@ -4750,7 +4774,7 @@
       <c r="L39" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="129"/>
+      <c r="M39" s="124"/>
       <c r="N39" s="43"/>
     </row>
     <row r="40" spans="1:14" ht="39" thickBot="1">
@@ -4817,7 +4841,7 @@
       <c r="G41" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="H41" s="123" t="s">
+      <c r="H41" s="119" t="s">
         <v>401</v>
       </c>
       <c r="I41" s="82" t="s">
@@ -4976,10 +5000,10 @@
       <c r="F45" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="125" t="s">
+      <c r="G45" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="120" t="s">
+      <c r="H45" s="116" t="s">
         <v>397</v>
       </c>
       <c r="I45" s="82" t="s">
@@ -5017,7 +5041,7 @@
       <c r="G46" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="H46" s="123" t="s">
+      <c r="H46" s="119" t="s">
         <v>402</v>
       </c>
       <c r="I46" s="82" t="s">
@@ -5747,7 +5771,7 @@
     </row>
     <row r="66" spans="1:13" ht="26.25" thickBot="1">
       <c r="A66" s="44" t="str">
-        <f t="shared" ref="A66:A85" si="1">_xlfn.CONCAT("122_ED2_",TEXT(ROW()-ROW(A$64)+1,"000"))</f>
+        <f t="shared" ref="A66:A87" si="1">_xlfn.CONCAT("122_ED2_",TEXT(ROW()-ROW(A$64)+1,"000"))</f>
         <v>122_ED2_003</v>
       </c>
       <c r="B66" s="45" t="str">
@@ -5788,7 +5812,7 @@
         <v>122_ED2_004</v>
       </c>
       <c r="B67" s="45" t="str">
-        <f t="shared" ref="B67:B85" si="2">_xlfn.CONCAT("122_", TEXT(ROW()-1, "0000"))</f>
+        <f t="shared" ref="B67:B87" si="2">_xlfn.CONCAT("122_", TEXT(ROW()-1, "0000"))</f>
         <v>122_0066</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -6085,7 +6109,7 @@
         <f t="shared" si="2"/>
         <v>122_0074</v>
       </c>
-      <c r="C75" s="120" t="s">
+      <c r="C75" s="116" t="s">
         <v>270</v>
       </c>
       <c r="D75" s="88" t="s">
@@ -6097,10 +6121,10 @@
       <c r="F75" s="88" t="s">
         <v>368</v>
       </c>
-      <c r="G75" s="121" t="s">
+      <c r="G75" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="H75" s="120" t="s">
+      <c r="H75" s="116" t="s">
         <v>369</v>
       </c>
       <c r="I75" s="87" t="s">
@@ -6122,7 +6146,7 @@
         <f t="shared" si="2"/>
         <v>122_0075</v>
       </c>
-      <c r="C76" s="120" t="s">
+      <c r="C76" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D76" s="88" t="s">
@@ -6134,10 +6158,10 @@
       <c r="F76" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="G76" s="121" t="s">
+      <c r="G76" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="120">
+      <c r="H76" s="116">
         <v>7.3</v>
       </c>
       <c r="I76" s="87" t="s">
@@ -6159,7 +6183,7 @@
         <f t="shared" si="2"/>
         <v>122_0076</v>
       </c>
-      <c r="C77" s="120" t="s">
+      <c r="C77" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D77" s="88" t="s">
@@ -6171,10 +6195,10 @@
       <c r="F77" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="G77" s="121" t="s">
+      <c r="G77" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="H77" s="120" t="s">
+      <c r="H77" s="116" t="s">
         <v>331</v>
       </c>
       <c r="I77" s="87" t="s">
@@ -6196,7 +6220,7 @@
         <f t="shared" si="2"/>
         <v>122_0077</v>
       </c>
-      <c r="C78" s="120" t="s">
+      <c r="C78" s="116" t="s">
         <v>270</v>
       </c>
       <c r="D78" s="88" t="s">
@@ -6208,10 +6232,10 @@
       <c r="F78" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="G78" s="121" t="s">
+      <c r="G78" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="H78" s="120" t="s">
+      <c r="H78" s="116" t="s">
         <v>331</v>
       </c>
       <c r="I78" s="87" t="s">
@@ -6233,7 +6257,7 @@
         <f t="shared" si="2"/>
         <v>122_0078</v>
       </c>
-      <c r="C79" s="120" t="s">
+      <c r="C79" s="116" t="s">
         <v>270</v>
       </c>
       <c r="D79" s="88" t="s">
@@ -6245,10 +6269,10 @@
       <c r="F79" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="G79" s="121" t="s">
+      <c r="G79" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="H79" s="120" t="s">
+      <c r="H79" s="116" t="s">
         <v>382</v>
       </c>
       <c r="I79" s="87" t="s">
@@ -6270,7 +6294,7 @@
         <f t="shared" si="2"/>
         <v>122_0079</v>
       </c>
-      <c r="C80" s="120" t="s">
+      <c r="C80" s="116" t="s">
         <v>270</v>
       </c>
       <c r="D80" s="88" t="s">
@@ -6282,10 +6306,10 @@
       <c r="F80" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="G80" s="121" t="s">
+      <c r="G80" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="H80" s="120"/>
+      <c r="H80" s="116"/>
       <c r="I80" s="87" t="s">
         <v>26</v>
       </c>
@@ -6305,7 +6329,7 @@
         <f t="shared" si="2"/>
         <v>122_0080</v>
       </c>
-      <c r="C81" s="120" t="s">
+      <c r="C81" s="116" t="s">
         <v>270</v>
       </c>
       <c r="D81" s="88" t="s">
@@ -6317,10 +6341,10 @@
       <c r="F81" s="88" t="s">
         <v>413</v>
       </c>
-      <c r="G81" s="121" t="s">
+      <c r="G81" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="120" t="s">
+      <c r="H81" s="116" t="s">
         <v>414</v>
       </c>
       <c r="I81" s="87" t="s">
@@ -6357,7 +6381,7 @@
       <c r="G82" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="127" t="s">
+      <c r="H82" s="123" t="s">
         <v>418</v>
       </c>
       <c r="I82" s="87" t="s">
@@ -6428,10 +6452,10 @@
       <c r="F84" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="G84" s="125" t="s">
+      <c r="G84" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="H84" s="120" t="s">
+      <c r="H84" s="116" t="s">
         <v>425</v>
       </c>
       <c r="I84" s="87" t="s">
@@ -6465,10 +6489,10 @@
       <c r="F85" s="88" t="s">
         <v>428</v>
       </c>
-      <c r="G85" s="125" t="s">
+      <c r="G85" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="H85" s="120" t="s">
+      <c r="H85" s="116" t="s">
         <v>429</v>
       </c>
       <c r="I85" s="87" t="s">
@@ -6481,17 +6505,79 @@
       </c>
       <c r="M85" s="84"/>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="44"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="7"/>
-      <c r="F86" s="58"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="44"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="7"/>
-      <c r="F87" s="58"/>
+    <row r="86" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A86" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>122_ED2_023</v>
+      </c>
+      <c r="B86" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>122_0085</v>
+      </c>
+      <c r="C86" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86" s="88" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" s="88" t="s">
+        <v>433</v>
+      </c>
+      <c r="G86" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="H86" s="116"/>
+      <c r="I86" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="87"/>
+      <c r="K86" s="87"/>
+      <c r="L86" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="M86" s="84" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A87" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>122_ED2_024</v>
+      </c>
+      <c r="B87" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>122_0086</v>
+      </c>
+      <c r="C87" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="88" t="s">
+        <v>436</v>
+      </c>
+      <c r="E87" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="F87" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G87" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="H87" s="116"/>
+      <c r="I87" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="87"/>
+      <c r="K87" s="87"/>
+      <c r="L87" s="88" t="s">
+        <v>375</v>
+      </c>
+      <c r="M87" s="84" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="44"/>
